--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X2 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X2 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -90,7 +90,52 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest</t>
+    <t xml:space="preserve">Avg Hr </t>
+  </si>
+  <si>
+    <t>Avg SV</t>
+  </si>
+  <si>
+    <t>Avg CO</t>
+  </si>
+  <si>
+    <t>Avg CI</t>
+  </si>
+  <si>
+    <t>Avg EF</t>
+  </si>
+  <si>
+    <t>Avg LVET</t>
+  </si>
+  <si>
+    <t>Avg CTI</t>
+  </si>
+  <si>
+    <t>Avg SAP</t>
+  </si>
+  <si>
+    <t>Avg DAP</t>
+  </si>
+  <si>
+    <t>Avg EDV</t>
+  </si>
+  <si>
+    <t>Avg SVR</t>
+  </si>
+  <si>
+    <t>Avg SVRi</t>
+  </si>
+  <si>
+    <t>Avg LCWi</t>
+  </si>
+  <si>
+    <t>Avg TFi</t>
+  </si>
+  <si>
+    <t>Avg EDFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>art blg</t>
@@ -105,10 +150,16 @@
     <t>150w</t>
   </si>
   <si>
+    <t>submax</t>
+  </si>
+  <si>
     <t>165w</t>
   </si>
   <si>
     <t>01-00:00:05</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
   <si>
     <t>01-00:00:15</t>
@@ -170,80 +221,372 @@
   <si>
     <t>---------------</t>
   </si>
-  <si>
-    <t xml:space="preserve">Avg Hr </t>
-  </si>
-  <si>
-    <t>Avg SV</t>
-  </si>
-  <si>
-    <t>Avg CO</t>
-  </si>
-  <si>
-    <t>Avg CI</t>
-  </si>
-  <si>
-    <t>Avg EF</t>
-  </si>
-  <si>
-    <t>Avg LVET</t>
-  </si>
-  <si>
-    <t>Avg CTI</t>
-  </si>
-  <si>
-    <t>Avg SAP</t>
-  </si>
-  <si>
-    <t>Avg DAP</t>
-  </si>
-  <si>
-    <t>Avg EDV</t>
-  </si>
-  <si>
-    <t>Avg SVR</t>
-  </si>
-  <si>
-    <t>Avg SVRi</t>
-  </si>
-  <si>
-    <t>Avg LCWi</t>
-  </si>
-  <si>
-    <t>Avg TFi</t>
-  </si>
-  <si>
-    <t>Avg EDFR</t>
-  </si>
-  <si>
-    <t>submax</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -251,20 +594,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -272,6 +904,1348 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.039750513425116"/>
+          <c:y val="0.129620337849139"/>
+          <c:w val="0.941690119418879"/>
+          <c:h val="0.698511456765345"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$87</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00648148148148148</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00671296296296296</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.0068287037037037</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.00694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.00706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.00717592592592593</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="h:mm:ss">
+                  <c:v>0.00729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="h:mm:ss">
+                  <c:v>0.00740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="h:mm:ss">
+                  <c:v>0.00752314814814815</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="h:mm:ss">
+                  <c:v>0.00763888888888889</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="h:mm:ss">
+                  <c:v>0.00775462962962963</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="h:mm:ss">
+                  <c:v>0.00787037037037037</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="h:mm:ss">
+                  <c:v>0.00798611111111111</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="h:mm:ss">
+                  <c:v>0.00810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="h:mm:ss">
+                  <c:v>0.00821759259259259</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="h:mm:ss">
+                  <c:v>0.00833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="h:mm:ss">
+                  <c:v>0.00844907407407407</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="h:mm:ss">
+                  <c:v>0.00856481481481482</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="h:mm:ss">
+                  <c:v>0.00868055555555556</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="h:mm:ss">
+                  <c:v>0.0087962962962963</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="h:mm:ss">
+                  <c:v>0.00891203703703704</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="h:mm:ss">
+                  <c:v>0.00902777777777778</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="h:mm:ss">
+                  <c:v>0.00914351851851852</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="h:mm:ss">
+                  <c:v>0.00925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="h:mm:ss">
+                  <c:v>0.009375</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="h:mm:ss">
+                  <c:v>0.00949074074074074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.83</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.57</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.44</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.62</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.97</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.82</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.76</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.91</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.77</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.08</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.23</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.22</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.28</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.27</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.61</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.55</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.63</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.96</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.74</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13.16</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.05</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.69</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.63</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.97</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12.71</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.99</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12.19</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11.65</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11.66</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="463021778"/>
+        <c:axId val="26693324"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="463021778"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26693324"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="26693324"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463021778"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>21590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>583565</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4667250" y="15932150"/>
+        <a:ext cx="8260715" cy="3854450"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,21 +2529,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L55" workbookViewId="0">
-      <selection activeCell="AC81" sqref="AC81"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -591,7 +2565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -650,54 +2624,54 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
         <v>0.992650462962963</v>
@@ -748,12 +2722,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.99276620370370372</v>
+        <v>0.992766203703704</v>
       </c>
       <c r="C7">
         <v>107</v>
@@ -801,12 +2775,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.99288194444444444</v>
+        <v>0.992881944444444</v>
       </c>
       <c r="C8">
         <v>104</v>
@@ -854,12 +2828,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.99299768518518527</v>
+        <v>0.992997685185185</v>
       </c>
       <c r="C9">
         <v>108</v>
@@ -907,12 +2881,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.99311342592592589</v>
+        <v>0.993113425925926</v>
       </c>
       <c r="C10">
         <v>103</v>
@@ -951,7 +2925,7 @@
         <v>1876</v>
       </c>
       <c r="O10">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="P10">
         <v>107</v>
@@ -960,12 +2934,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.99322916666666661</v>
+        <v>0.993229166666667</v>
       </c>
       <c r="C11">
         <v>109</v>
@@ -1013,15 +2987,15 @@
         <v>44</v>
       </c>
       <c r="S11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.99334490740740744</v>
+        <v>0.993344907407407</v>
       </c>
       <c r="C12">
         <v>110</v>
@@ -1033,7 +3007,7 @@
         <v>6.61</v>
       </c>
       <c r="F12">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="G12">
         <v>63</v>
@@ -1069,12 +3043,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.99346064814814816</v>
+        <v>0.993460648148148</v>
       </c>
       <c r="C13">
         <v>108</v>
@@ -1122,12 +3096,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.99357638888888899</v>
+        <v>0.993576388888889</v>
       </c>
       <c r="C14">
         <v>109</v>
@@ -1166,7 +3140,7 @@
         <v>1629</v>
       </c>
       <c r="O14">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="P14">
         <v>105</v>
@@ -1175,12 +3149,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.99369212962962961</v>
+        <v>0.99369212962963</v>
       </c>
       <c r="C15">
         <v>101</v>
@@ -1228,12 +3202,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.99380787037037033</v>
+        <v>0.99380787037037</v>
       </c>
       <c r="C16">
         <v>95</v>
@@ -1281,12 +3255,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.99392361111111116</v>
+        <v>0.993923611111111</v>
       </c>
       <c r="C17">
         <v>113</v>
@@ -1334,12 +3308,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.99403935185185188</v>
+        <v>0.994039351851852</v>
       </c>
       <c r="C18">
         <v>109</v>
@@ -1387,12 +3361,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.99415509259259249</v>
+        <v>0.994155092592592</v>
       </c>
       <c r="C19">
         <v>104</v>
@@ -1404,7 +3378,7 @@
         <v>6.48</v>
       </c>
       <c r="F19">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="G19">
         <v>64</v>
@@ -1440,31 +3414,31 @@
         <v>40</v>
       </c>
       <c r="S19" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U19" s="2">
         <f>AVERAGE(C6:C19)</f>
-        <v>105.35714285714286</v>
+        <v>105.357142857143</v>
       </c>
       <c r="V19" s="2">
         <f t="shared" ref="V19:AI19" si="0">AVERAGE(D6:D19)</f>
-        <v>59.285714285714285</v>
+        <v>59.2857142857143</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="0"/>
-        <v>6.3221428571428575</v>
+        <v>6.32214285714286</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" si="0"/>
-        <v>3.9628571428571426</v>
+        <v>3.96285714285714</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="0"/>
-        <v>63.214285714285715</v>
+        <v>63.2142857142857</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="0"/>
-        <v>392.64285714285717</v>
+        <v>392.642857142857</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="0"/>
@@ -1472,43 +3446,43 @@
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="0"/>
-        <v>119.14285714285714</v>
+        <v>119.142857142857</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="0"/>
-        <v>79.142857142857139</v>
+        <v>79.1428571428571</v>
       </c>
       <c r="AD19" s="2">
         <f t="shared" si="0"/>
-        <v>93.357142857142861</v>
+        <v>93.3571428571429</v>
       </c>
       <c r="AE19" s="2">
         <f t="shared" si="0"/>
-        <v>1099.0714285714287</v>
+        <v>1099.07142857143</v>
       </c>
       <c r="AF19" s="2">
         <f t="shared" si="0"/>
-        <v>1753.3571428571429</v>
+        <v>1753.35714285714</v>
       </c>
       <c r="AG19" s="2">
         <f t="shared" si="0"/>
-        <v>4.757142857142858</v>
+        <v>4.75714285714286</v>
       </c>
       <c r="AH19" s="2">
         <f t="shared" si="0"/>
-        <v>108.64285714285714</v>
+        <v>108.642857142857</v>
       </c>
       <c r="AI19" s="2">
         <f t="shared" si="0"/>
-        <v>42.714285714285715</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+        <v>42.7142857142857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.99427083333333333</v>
+        <v>0.994270833333333</v>
       </c>
       <c r="C20">
         <v>105</v>
@@ -1547,7 +3521,7 @@
         <v>1735</v>
       </c>
       <c r="O20">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="P20">
         <v>111</v>
@@ -1571,12 +3545,12 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.99438657407407405</v>
+        <v>0.994386574074074</v>
       </c>
       <c r="C21">
         <v>110</v>
@@ -1639,12 +3613,12 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.99450231481481488</v>
+        <v>0.994502314814815</v>
       </c>
       <c r="C22">
         <v>111</v>
@@ -1707,12 +3681,12 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.9946180555555556</v>
+        <v>0.994618055555556</v>
       </c>
       <c r="C23">
         <v>115</v>
@@ -1775,12 +3749,12 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.99473379629629621</v>
+        <v>0.994733796296296</v>
       </c>
       <c r="C24">
         <v>110</v>
@@ -1843,12 +3817,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.99484953703703705</v>
+        <v>0.994849537037037</v>
       </c>
       <c r="C25">
         <v>107</v>
@@ -1911,12 +3885,12 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.99496527777777777</v>
+        <v>0.994965277777778</v>
       </c>
       <c r="C26">
         <v>107</v>
@@ -1955,7 +3929,7 @@
         <v>1818</v>
       </c>
       <c r="O26">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="P26">
         <v>111</v>
@@ -1979,12 +3953,12 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.99508101851851849</v>
+        <v>0.995081018518518</v>
       </c>
       <c r="C27">
         <v>115</v>
@@ -1996,7 +3970,7 @@
         <v>6.88</v>
       </c>
       <c r="F27">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="G27">
         <v>64</v>
@@ -2047,12 +4021,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.99519675925925932</v>
+        <v>0.995196759259259</v>
       </c>
       <c r="C28">
         <v>114</v>
@@ -2115,12 +4089,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.99531249999999993</v>
+        <v>0.9953125</v>
       </c>
       <c r="C29">
         <v>118</v>
@@ -2183,12 +4157,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.99542824074074077</v>
+        <v>0.995428240740741</v>
       </c>
       <c r="C30">
         <v>124</v>
@@ -2251,12 +4225,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.99554398148148149</v>
+        <v>0.995543981481481</v>
       </c>
       <c r="C31">
         <v>126</v>
@@ -2319,12 +4293,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.99565972222222221</v>
+        <v>0.995659722222222</v>
       </c>
       <c r="C32">
         <v>133</v>
@@ -2333,7 +4307,7 @@
         <v>60</v>
       </c>
       <c r="E32">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="F32">
         <v>5.09</v>
@@ -2372,7 +4346,7 @@
         <v>43</v>
       </c>
       <c r="S32" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -2390,12 +4364,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.99577546296296304</v>
+        <v>0.995775462962963</v>
       </c>
       <c r="C33">
         <v>134</v>
@@ -2404,7 +4378,7 @@
         <v>65</v>
       </c>
       <c r="E33">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="F33">
         <v>5.51</v>
@@ -2458,12 +4432,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.99589120370370365</v>
+        <v>0.995891203703704</v>
       </c>
       <c r="C34">
         <v>139</v>
@@ -2472,7 +4446,7 @@
         <v>68</v>
       </c>
       <c r="E34">
-        <v>9.6199999999999992</v>
+        <v>9.62</v>
       </c>
       <c r="F34">
         <v>6.03</v>
@@ -2526,12 +4500,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.99600694444444438</v>
+        <v>0.996006944444444</v>
       </c>
       <c r="C35">
         <v>139</v>
@@ -2594,12 +4568,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.99612268518518521</v>
+        <v>0.996122685185185</v>
       </c>
       <c r="C36">
         <v>138</v>
@@ -2662,12 +4636,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.99623842592592593</v>
+        <v>0.996238425925926</v>
       </c>
       <c r="C37">
         <v>145</v>
@@ -2676,7 +4650,7 @@
         <v>68</v>
       </c>
       <c r="E37">
-        <v>9.9700000000000006</v>
+        <v>9.97</v>
       </c>
       <c r="F37">
         <v>6.25</v>
@@ -2730,12 +4704,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.99635416666666676</v>
+        <v>0.996354166666667</v>
       </c>
       <c r="C38">
         <v>150</v>
@@ -2798,12 +4772,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.99646990740740737</v>
+        <v>0.996469907407407</v>
       </c>
       <c r="C39">
         <v>154</v>
@@ -2866,12 +4840,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.9965856481481481</v>
+        <v>0.996585648148148</v>
       </c>
       <c r="C40">
         <v>158</v>
@@ -2934,12 +4908,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.99670138888888893</v>
+        <v>0.996701388888889</v>
       </c>
       <c r="C41">
         <v>155</v>
@@ -2978,7 +4952,7 @@
         <v>1020</v>
       </c>
       <c r="O41">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="P41">
         <v>99</v>
@@ -3002,12 +4976,12 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.99681712962962965</v>
+        <v>0.99681712962963</v>
       </c>
       <c r="C42">
         <v>155</v>
@@ -3070,12 +5044,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.99693287037037026</v>
+        <v>0.99693287037037</v>
       </c>
       <c r="C43">
         <v>158</v>
@@ -3138,12 +5112,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.99704861111111109</v>
+        <v>0.997048611111111</v>
       </c>
       <c r="C44">
         <v>158</v>
@@ -3206,12 +5180,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.99716435185185182</v>
+        <v>0.997164351851852</v>
       </c>
       <c r="C45">
         <v>162</v>
@@ -3274,12 +5248,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.99728009259259265</v>
+        <v>0.997280092592593</v>
       </c>
       <c r="C46">
         <v>166</v>
@@ -3318,7 +5292,7 @@
         <v>988</v>
       </c>
       <c r="O46">
-        <v>8.3800000000000008</v>
+        <v>8.38</v>
       </c>
       <c r="P46">
         <v>95</v>
@@ -3342,12 +5316,12 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.99739583333333337</v>
+        <v>0.997395833333333</v>
       </c>
       <c r="C47">
         <v>166</v>
@@ -3410,12 +5384,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.99751157407407398</v>
+        <v>0.997511574074074</v>
       </c>
       <c r="C48">
         <v>167</v>
@@ -3478,12 +5452,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.99762731481481481</v>
+        <v>0.997627314814815</v>
       </c>
       <c r="C49">
         <v>171</v>
@@ -3546,12 +5520,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.99774305555555554</v>
+        <v>0.997743055555556</v>
       </c>
       <c r="C50">
         <v>172</v>
@@ -3590,7 +5564,7 @@
         <v>1009</v>
       </c>
       <c r="O50">
-        <v>8.2100000000000009</v>
+        <v>8.21</v>
       </c>
       <c r="P50">
         <v>90</v>
@@ -3614,12 +5588,12 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.99785879629629637</v>
+        <v>0.997858796296296</v>
       </c>
       <c r="C51">
         <v>173</v>
@@ -3682,12 +5656,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.99797453703703709</v>
+        <v>0.997974537037037</v>
       </c>
       <c r="C52">
         <v>171</v>
@@ -3750,12 +5724,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.9980902777777777</v>
+        <v>0.998090277777778</v>
       </c>
       <c r="C53">
         <v>170</v>
@@ -3818,12 +5792,12 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.99820601851851853</v>
+        <v>0.998206018518519</v>
       </c>
       <c r="C54">
         <v>171</v>
@@ -3862,7 +5836,7 @@
         <v>981</v>
       </c>
       <c r="O54">
-        <v>8.4499999999999993</v>
+        <v>8.45</v>
       </c>
       <c r="P54">
         <v>94</v>
@@ -3886,12 +5860,12 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.99832175925925926</v>
+        <v>0.998321759259259</v>
       </c>
       <c r="C55">
         <v>176</v>
@@ -3954,12 +5928,12 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.99843749999999998</v>
+        <v>0.9984375</v>
       </c>
       <c r="C56">
         <v>179</v>
@@ -4022,12 +5996,12 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.99855324074074081</v>
+        <v>0.998553240740741</v>
       </c>
       <c r="C57">
         <v>178</v>
@@ -4090,12 +6064,12 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>0.99866898148148142</v>
+        <v>0.998668981481481</v>
       </c>
       <c r="C58">
         <v>177</v>
@@ -4158,12 +6132,12 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B59" s="1">
-        <v>0.99878472222222225</v>
+        <v>0.998784722222222</v>
       </c>
       <c r="C59">
         <v>176</v>
@@ -4226,12 +6200,12 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B60" s="1">
-        <v>0.99890046296296298</v>
+        <v>0.998900462962963</v>
       </c>
       <c r="C60">
         <v>178</v>
@@ -4294,12 +6268,12 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>6.4814814814814813E-3</v>
+        <v>0.00648148148148148</v>
       </c>
       <c r="B61" s="1">
-        <v>0.9990162037037037</v>
+        <v>0.999016203703704</v>
       </c>
       <c r="C61">
         <v>183</v>
@@ -4347,7 +6321,7 @@
         <v>34</v>
       </c>
       <c r="S61" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
@@ -4365,12 +6339,12 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>6.5972222222222222E-3</v>
+        <v>0.00659722222222222</v>
       </c>
       <c r="B62" s="1">
-        <v>0.99913194444444453</v>
+        <v>0.999131944444445</v>
       </c>
       <c r="C62">
         <v>187</v>
@@ -4433,12 +6407,12 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>6.7129629629629622E-3</v>
+        <v>0.00671296296296296</v>
       </c>
       <c r="B63" s="1">
-        <v>0.99924768518518514</v>
+        <v>0.999247685185185</v>
       </c>
       <c r="C63">
         <v>188</v>
@@ -4501,12 +6475,12 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>6.828703703703704E-3</v>
+        <v>0.0068287037037037</v>
       </c>
       <c r="B64" s="1">
-        <v>0.99936342592592586</v>
+        <v>0.999363425925926</v>
       </c>
       <c r="C64">
         <v>190</v>
@@ -4569,12 +6543,12 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.00694444444444444</v>
       </c>
       <c r="B65" s="1">
-        <v>0.9994791666666667</v>
+        <v>0.999479166666667</v>
       </c>
       <c r="C65">
         <v>190</v>
@@ -4637,12 +6611,12 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>7.0601851851851841E-3</v>
+        <v>0.00706018518518518</v>
       </c>
       <c r="B66" s="1">
-        <v>0.99959490740740742</v>
+        <v>0.999594907407407</v>
       </c>
       <c r="C66">
         <v>190</v>
@@ -4654,7 +6628,7 @@
         <v>12.96</v>
       </c>
       <c r="F66">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="G66">
         <v>61</v>
@@ -4705,12 +6679,12 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>0.00717592592592593</v>
       </c>
       <c r="B67" s="1">
-        <v>0.99971064814814825</v>
+        <v>0.999710648148148</v>
       </c>
       <c r="C67">
         <v>192</v>
@@ -4758,7 +6732,7 @@
         <v>29</v>
       </c>
       <c r="S67" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -4776,12 +6750,12 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>7.2916666666666659E-3</v>
+        <v>0.00729166666666667</v>
       </c>
       <c r="B68" s="1">
-        <v>0.99982638888888886</v>
+        <v>0.999826388888889</v>
       </c>
       <c r="C68">
         <v>194</v>
@@ -4829,35 +6803,35 @@
         <v>39</v>
       </c>
       <c r="S68" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="U68" s="2">
         <f>AVERAGE(C62:C68)</f>
-        <v>190.14285714285714</v>
+        <v>190.142857142857</v>
       </c>
       <c r="V68" s="2">
         <f t="shared" ref="V68:AI68" si="1">AVERAGE(D66:D68)</f>
-        <v>62.666666666666664</v>
+        <v>62.6666666666667</v>
       </c>
       <c r="W68" s="2">
         <f t="shared" si="1"/>
-        <v>12.133333333333333</v>
+        <v>12.1333333333333</v>
       </c>
       <c r="X68" s="2">
         <f t="shared" si="1"/>
-        <v>7.6066666666666665</v>
+        <v>7.60666666666667</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" si="1"/>
-        <v>60.333333333333336</v>
+        <v>60.3333333333333</v>
       </c>
       <c r="Z68" s="2">
         <f t="shared" si="1"/>
-        <v>233.66666666666666</v>
+        <v>233.666666666667</v>
       </c>
       <c r="AA68" s="2">
         <f t="shared" si="1"/>
-        <v>116.33333333333333</v>
+        <v>116.333333333333</v>
       </c>
       <c r="AB68" s="2">
         <f t="shared" si="1"/>
@@ -4869,7 +6843,7 @@
       </c>
       <c r="AD68" s="2">
         <f t="shared" si="1"/>
-        <v>103.66666666666667</v>
+        <v>103.666666666667</v>
       </c>
       <c r="AE68" s="2">
         <f t="shared" si="1"/>
@@ -4877,27 +6851,27 @@
       </c>
       <c r="AF68" s="2">
         <f t="shared" si="1"/>
-        <v>911.66666666666663</v>
+        <v>911.666666666667</v>
       </c>
       <c r="AG68" s="2">
         <f t="shared" si="1"/>
-        <v>9.1266666666666669</v>
+        <v>9.12666666666667</v>
       </c>
       <c r="AH68" s="2">
         <f t="shared" si="1"/>
-        <v>89.333333333333329</v>
+        <v>89.3333333333333</v>
       </c>
       <c r="AI68" s="2">
         <f t="shared" si="1"/>
-        <v>35.666666666666664</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+        <v>35.6666666666667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>7.4074074074074068E-3</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="B69" s="1">
-        <v>0.99994212962962958</v>
+        <v>0.99994212962963</v>
       </c>
       <c r="C69">
         <v>195</v>
@@ -4945,7 +6919,7 @@
         <v>45</v>
       </c>
       <c r="S69" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
@@ -4963,12 +6937,12 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>7.5231481481481477E-3</v>
+        <v>0.00752314814814815</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C70">
         <v>195</v>
@@ -5016,19 +6990,19 @@
         <v>44</v>
       </c>
       <c r="S70" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="U70" s="2">
         <f>AVERAGE(C68:C74)</f>
-        <v>197.42857142857142</v>
+        <v>197.428571428571</v>
       </c>
       <c r="V70" s="2">
         <f t="shared" ref="V70:AI70" si="2">AVERAGE(D68:D70)</f>
-        <v>66.333333333333329</v>
+        <v>66.3333333333333</v>
       </c>
       <c r="W70" s="2">
         <f t="shared" si="2"/>
-        <v>13.016666666666666</v>
+        <v>13.0166666666667</v>
       </c>
       <c r="X70" s="2">
         <f t="shared" si="2"/>
@@ -5036,19 +7010,19 @@
       </c>
       <c r="Y70" s="2">
         <f t="shared" si="2"/>
-        <v>60.666666666666664</v>
+        <v>60.6666666666667</v>
       </c>
       <c r="Z70" s="2">
         <f t="shared" si="2"/>
-        <v>232.33333333333334</v>
+        <v>232.333333333333</v>
       </c>
       <c r="AA70" s="2">
         <f t="shared" si="2"/>
-        <v>120.66666666666667</v>
+        <v>120.666666666667</v>
       </c>
       <c r="AB70" s="2">
         <f t="shared" si="2"/>
-        <v>119.66666666666667</v>
+        <v>119.666666666667</v>
       </c>
       <c r="AC70" s="2">
         <f t="shared" si="2"/>
@@ -5056,7 +7030,7 @@
       </c>
       <c r="AD70" s="2">
         <f t="shared" si="2"/>
-        <v>108.33333333333333</v>
+        <v>108.333333333333</v>
       </c>
       <c r="AE70" s="2">
         <f t="shared" si="2"/>
@@ -5068,7 +7042,7 @@
       </c>
       <c r="AG70" s="2">
         <f t="shared" si="2"/>
-        <v>9.7899999999999991</v>
+        <v>9.79</v>
       </c>
       <c r="AH70" s="2">
         <f t="shared" si="2"/>
@@ -5076,15 +7050,15 @@
       </c>
       <c r="AI70" s="2">
         <f t="shared" si="2"/>
-        <v>42.666666666666664</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+        <v>42.6666666666667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
-        <v>7.6388888888888886E-3</v>
+        <v>0.00763888888888889</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C71">
         <v>197</v>
@@ -5132,12 +7106,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
-        <v>7.7546296296296287E-3</v>
+        <v>0.00775462962962963</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C72">
         <v>199</v>
@@ -5176,7 +7150,7 @@
         <v>869</v>
       </c>
       <c r="O72">
-        <v>9.5399999999999991</v>
+        <v>9.54</v>
       </c>
       <c r="P72">
         <v>81</v>
@@ -5185,12 +7159,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
-        <v>7.8703703703703713E-3</v>
+        <v>0.00787037037037037</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C73">
         <v>200</v>
@@ -5238,12 +7212,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
-        <v>7.9861111111111122E-3</v>
+        <v>0.00798611111111111</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C74">
         <v>202</v>
@@ -5291,12 +7265,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
-        <v>8.1018518518518514E-3</v>
+        <v>0.00810185185185185</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C75">
         <v>203</v>
@@ -5344,12 +7318,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
-        <v>8.217592592592594E-3</v>
+        <v>0.00821759259259259</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C76">
         <v>204</v>
@@ -5361,7 +7335,7 @@
         <v>14.3</v>
       </c>
       <c r="F76">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="G76">
         <v>58</v>
@@ -5397,12 +7371,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19">
       <c r="A77" s="1">
-        <v>8.3333333333333332E-3</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C77">
         <v>204</v>
@@ -5450,15 +7424,15 @@
         <v>71</v>
       </c>
       <c r="S77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="1">
-        <v>8.4490740740740741E-3</v>
+        <v>0.00844907407407407</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C78">
         <v>203</v>
@@ -5470,7 +7444,7 @@
         <v>12.97</v>
       </c>
       <c r="F78">
-        <v>8.1300000000000008</v>
+        <v>8.13</v>
       </c>
       <c r="G78">
         <v>61</v>
@@ -5506,15 +7480,15 @@
         <v>81</v>
       </c>
       <c r="S78" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1">
-        <v>8.564814814814815E-3</v>
+        <v>0.00856481481481482</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C79">
         <v>201</v>
@@ -5553,7 +7527,7 @@
         <v>854</v>
       </c>
       <c r="O79">
-        <v>9.7200000000000006</v>
+        <v>9.72</v>
       </c>
       <c r="P79">
         <v>94</v>
@@ -5562,12 +7536,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
-        <v>8.6805555555555559E-3</v>
+        <v>0.00868055555555556</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C80">
         <v>198</v>
@@ -5615,12 +7589,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
-        <v>8.7962962962962968E-3</v>
+        <v>0.0087962962962963</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C81">
         <v>198</v>
@@ -5632,7 +7606,7 @@
         <v>13.61</v>
       </c>
       <c r="F81">
-        <v>8.5299999999999994</v>
+        <v>8.53</v>
       </c>
       <c r="G81">
         <v>61</v>
@@ -5668,12 +7642,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
-        <v>8.9120370370370378E-3</v>
+        <v>0.00891203703703704</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C82">
         <v>197</v>
@@ -5685,7 +7659,7 @@
         <v>13.5</v>
       </c>
       <c r="F82">
-        <v>8.4600000000000009</v>
+        <v>8.46</v>
       </c>
       <c r="G82">
         <v>61</v>
@@ -5721,12 +7695,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
-        <v>9.0277777777777787E-3</v>
+        <v>0.00902777777777778</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C83">
         <v>197</v>
@@ -5774,12 +7748,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17">
       <c r="A84" s="1">
-        <v>9.1435185185185178E-3</v>
+        <v>0.00914351851851852</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C84">
         <v>192</v>
@@ -5827,12 +7801,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17">
       <c r="A85" s="1">
-        <v>9.2592592592592605E-3</v>
+        <v>0.00925925925925926</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C85">
         <v>181</v>
@@ -5880,12 +7854,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" s="1">
-        <v>9.3749999999999997E-3</v>
+        <v>0.009375</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C86">
         <v>179</v>
@@ -5933,12 +7907,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87" s="1">
-        <v>9.4907407407407406E-3</v>
+        <v>0.00949074074074074</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C87">
         <v>172</v>
@@ -5977,7 +7951,7 @@
         <v>998</v>
       </c>
       <c r="O87">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="P87">
         <v>88</v>
@@ -5986,36 +7960,46 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X2 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X2 at 2200.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\21Sept2013_Xining_Physioflow_X1X4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAC0A1F-1185-4363-B417-621167EBDD94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -225,14 +239,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,353 +248,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -594,322 +265,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -921,7 +306,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -947,6 +331,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -957,10 +342,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.039750513425116"/>
-          <c:y val="0.129620337849139"/>
-          <c:w val="0.941690119418879"/>
-          <c:h val="0.698511456765345"/>
+          <c:x val="3.9750513425115999E-2"/>
+          <c:y val="0.12962033784913901"/>
+          <c:w val="0.94169011941887903"/>
+          <c:h val="0.69851145676534498"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -981,260 +366,257 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$87</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="82"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
-                  <c:v>0.000115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.000231481481481481</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.000347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.000462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.000578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.000694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.000810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.000925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.00127314814814815</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00138888888888889</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00150462962962963</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00162037037037037</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00173611111111111</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00185185185185185</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.00196759259259259</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00219907407407407</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00231481481481482</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00243055555555556</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.0025462962962963</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.00266203703703704</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00277777777777778</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.00289351851851852</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00300925925925926</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.003125</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.00324074074074074</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00335648148148148</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00358796296296296</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.0037037037037037</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.00381944444444444</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.00393518518518519</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.00405092592592593</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.00428240740740741</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.00439814814814815</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00451388888888889</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00474537037037037</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00486111111111111</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="h:mm:ss">
-                  <c:v>0.00497685185185185</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="h:mm:ss">
-                  <c:v>0.00509259259259259</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="h:mm:ss">
-                  <c:v>0.00520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="h:mm:ss">
-                  <c:v>0.00532407407407407</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="h:mm:ss">
-                  <c:v>0.00543981481481481</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="h:mm:ss">
-                  <c:v>0.00555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="h:mm:ss">
-                  <c:v>0.0056712962962963</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="h:mm:ss">
-                  <c:v>0.00578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="h:mm:ss">
-                  <c:v>0.00590277777777778</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="h:mm:ss">
-                  <c:v>0.00601851851851852</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="h:mm:ss">
-                  <c:v>0.00613425925925926</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="h:mm:ss">
-                  <c:v>0.00625</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="h:mm:ss">
-                  <c:v>0.00636574074074074</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="h:mm:ss">
-                  <c:v>0.00648148148148148</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="h:mm:ss">
-                  <c:v>0.00659722222222222</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="h:mm:ss">
-                  <c:v>0.00671296296296296</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="h:mm:ss">
-                  <c:v>0.0068287037037037</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="h:mm:ss">
-                  <c:v>0.00694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="h:mm:ss">
-                  <c:v>0.00706018518518518</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="h:mm:ss">
-                  <c:v>0.00717592592592593</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="h:mm:ss">
-                  <c:v>0.00729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="h:mm:ss">
-                  <c:v>0.00740740740740741</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="h:mm:ss">
-                  <c:v>0.00752314814814815</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="h:mm:ss">
-                  <c:v>0.00763888888888889</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="h:mm:ss">
-                  <c:v>0.00775462962962963</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="h:mm:ss">
-                  <c:v>0.00787037037037037</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="h:mm:ss">
-                  <c:v>0.00798611111111111</c:v>
-                </c:pt>
-                <c:pt idx="69" c:formatCode="h:mm:ss">
-                  <c:v>0.00810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="h:mm:ss">
-                  <c:v>0.00821759259259259</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="h:mm:ss">
-                  <c:v>0.00833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="h:mm:ss">
-                  <c:v>0.00844907407407407</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="h:mm:ss">
-                  <c:v>0.00856481481481482</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="h:mm:ss">
-                  <c:v>0.00868055555555556</c:v>
-                </c:pt>
-                <c:pt idx="75" c:formatCode="h:mm:ss">
-                  <c:v>0.0087962962962963</c:v>
-                </c:pt>
-                <c:pt idx="76" c:formatCode="h:mm:ss">
-                  <c:v>0.00891203703703704</c:v>
-                </c:pt>
-                <c:pt idx="77" c:formatCode="h:mm:ss">
-                  <c:v>0.00902777777777778</c:v>
-                </c:pt>
-                <c:pt idx="78" c:formatCode="h:mm:ss">
-                  <c:v>0.00914351851851852</c:v>
-                </c:pt>
-                <c:pt idx="79" c:formatCode="h:mm:ss">
-                  <c:v>0.00925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="80" c:formatCode="h:mm:ss">
-                  <c:v>0.009375</c:v>
-                </c:pt>
-                <c:pt idx="81" c:formatCode="h:mm:ss">
-                  <c:v>0.00949074074074074</c:v>
+                <c:pt idx="0">
+                  <c:v>1.15740740740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31481481481481E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4722222222222202E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6296296296296298E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.78703703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9444444444444404E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1018518518518505E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2592592592592596E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0416666666666699E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1574074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.27314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5046296296296301E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6203703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.85185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9675925925925898E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0833333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1990740740740699E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3148148148148199E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5462962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.66203703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8935185185185201E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3564814814814798E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5879629629629599E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7037037037036999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.93518518518519E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.05092592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2824074074074101E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3981481481481502E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7453703703703703E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9768518518518504E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0925925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4398148148148097E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6712962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.7870370370370402E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0185185185185203E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1342592592592603E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3657407407407404E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.4814814814814804E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7129629629629596E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.8287037037036997E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0601851851851798E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1759259259259302E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2916666666666703E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.4074074074074103E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.5231481481481503E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.6388888888888904E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.7546296296296304E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.8703703703703696E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.9861111111111105E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.1018518518518497E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.2175925925925906E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.3333333333333297E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.4490740740740707E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.5648148148148202E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.6805555555555594E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.7962962962963003E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.9120370370370395E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.0277777777777804E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.1435185185185196E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.2592592592592605E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.3749999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.4907407407407406E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,13 +706,13 @@
                   <c:v>7.44</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.12</c:v>
+                  <c:v>8.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.8</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.62</c:v>
+                  <c:v>9.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>9.49</c:v>
@@ -1339,7 +721,7 @@
                   <c:v>9.32</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.97</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>10.25</c:v>
@@ -1495,6 +877,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E7A2-4E16-97A6-406E1EC1F7A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1504,7 +891,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="463021778"/>
         <c:axId val="26693324"/>
@@ -1516,6 +902,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1549,6 +936,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="26693324"/>
@@ -1607,6 +995,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="463021778"/>
@@ -1647,6 +1036,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2214,7 +1604,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -2228,14 +1618,20 @@
       <xdr:row>108</xdr:row>
       <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4667250" y="15932150"/>
-        <a:ext cx="8260715" cy="3854450"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2529,21 +1925,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:A70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2551,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2669,9 +2065,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>0.000115740740740741</v>
+        <v>1.15740740740741E-4</v>
       </c>
       <c r="B6" s="1">
         <v>0.992650462962963</v>
@@ -2722,12 +2118,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>0.000231481481481481</v>
+        <v>2.31481481481481E-4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.992766203703704</v>
+        <v>0.99276620370370405</v>
       </c>
       <c r="C7">
         <v>107</v>
@@ -2775,9 +2171,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>0.000347222222222222</v>
+        <v>3.4722222222222202E-4</v>
       </c>
       <c r="B8" s="1">
         <v>0.992881944444444</v>
@@ -2828,12 +2224,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>0.000462962962962963</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.992997685185185</v>
+        <v>0.99299768518518505</v>
       </c>
       <c r="C9">
         <v>108</v>
@@ -2881,9 +2277,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>0.000578703703703704</v>
+        <v>5.78703703703704E-4</v>
       </c>
       <c r="B10" s="1">
         <v>0.993113425925926</v>
@@ -2925,7 +2321,7 @@
         <v>1876</v>
       </c>
       <c r="O10">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="P10">
         <v>107</v>
@@ -2934,12 +2330,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>0.000694444444444444</v>
+        <v>6.9444444444444404E-4</v>
       </c>
       <c r="B11" s="1">
-        <v>0.993229166666667</v>
+        <v>0.99322916666666705</v>
       </c>
       <c r="C11">
         <v>109</v>
@@ -2990,9 +2386,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>0.000810185185185185</v>
+        <v>8.1018518518518505E-4</v>
       </c>
       <c r="B12" s="1">
         <v>0.993344907407407</v>
@@ -3007,7 +2403,7 @@
         <v>6.61</v>
       </c>
       <c r="F12">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G12">
         <v>63</v>
@@ -3043,12 +2439,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>0.000925925925925926</v>
+        <v>9.2592592592592596E-4</v>
       </c>
       <c r="B13" s="1">
-        <v>0.993460648148148</v>
+        <v>0.99346064814814805</v>
       </c>
       <c r="C13">
         <v>108</v>
@@ -3096,12 +2492,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>0.00104166666666667</v>
+        <v>1.0416666666666699E-3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.993576388888889</v>
+        <v>0.99357638888888899</v>
       </c>
       <c r="C14">
         <v>109</v>
@@ -3140,7 +2536,7 @@
         <v>1629</v>
       </c>
       <c r="O14">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P14">
         <v>105</v>
@@ -3149,12 +2545,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>0.00115740740740741</v>
+        <v>1.1574074074074099E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>0.99369212962963</v>
+        <v>0.99369212962963005</v>
       </c>
       <c r="C15">
         <v>101</v>
@@ -3202,12 +2598,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>0.00127314814814815</v>
+        <v>1.27314814814815E-3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.99380787037037</v>
+        <v>0.99380787037036999</v>
       </c>
       <c r="C16">
         <v>95</v>
@@ -3255,12 +2651,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>0.00138888888888889</v>
+        <v>1.38888888888889E-3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.993923611111111</v>
+        <v>0.99392361111111105</v>
       </c>
       <c r="C17">
         <v>113</v>
@@ -3308,12 +2704,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>0.00150462962962963</v>
+        <v>1.5046296296296301E-3</v>
       </c>
       <c r="B18" s="1">
-        <v>0.994039351851852</v>
+        <v>0.99403935185185199</v>
       </c>
       <c r="C18">
         <v>109</v>
@@ -3363,10 +2759,10 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>0.00162037037037037</v>
+        <v>1.6203703703703701E-3</v>
       </c>
       <c r="B19" s="1">
-        <v>0.994155092592592</v>
+        <v>0.99415509259259205</v>
       </c>
       <c r="C19">
         <v>104</v>
@@ -3378,7 +2774,7 @@
         <v>6.48</v>
       </c>
       <c r="F19">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="G19">
         <v>64</v>
@@ -3418,27 +2814,27 @@
       </c>
       <c r="U19" s="2">
         <f>AVERAGE(C6:C19)</f>
-        <v>105.357142857143</v>
+        <v>105.35714285714286</v>
       </c>
       <c r="V19" s="2">
         <f t="shared" ref="V19:AI19" si="0">AVERAGE(D6:D19)</f>
-        <v>59.2857142857143</v>
+        <v>59.285714285714285</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="0"/>
-        <v>6.32214285714286</v>
+        <v>6.3221428571428575</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" si="0"/>
-        <v>3.96285714285714</v>
+        <v>3.9628571428571426</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="0"/>
-        <v>63.2142857142857</v>
+        <v>63.214285714285715</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="0"/>
-        <v>392.642857142857</v>
+        <v>392.64285714285717</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="0"/>
@@ -3446,43 +2842,43 @@
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="0"/>
-        <v>119.142857142857</v>
+        <v>119.14285714285714</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="0"/>
-        <v>79.1428571428571</v>
+        <v>79.142857142857139</v>
       </c>
       <c r="AD19" s="2">
         <f t="shared" si="0"/>
-        <v>93.3571428571429</v>
+        <v>93.357142857142861</v>
       </c>
       <c r="AE19" s="2">
         <f t="shared" si="0"/>
-        <v>1099.07142857143</v>
+        <v>1099.0714285714287</v>
       </c>
       <c r="AF19" s="2">
         <f t="shared" si="0"/>
-        <v>1753.35714285714</v>
+        <v>1753.3571428571429</v>
       </c>
       <c r="AG19" s="2">
         <f t="shared" si="0"/>
-        <v>4.75714285714286</v>
+        <v>4.757142857142858</v>
       </c>
       <c r="AH19" s="2">
         <f t="shared" si="0"/>
-        <v>108.642857142857</v>
+        <v>108.64285714285714</v>
       </c>
       <c r="AI19" s="2">
         <f t="shared" si="0"/>
-        <v>42.7142857142857</v>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>0.00173611111111111</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>0.994270833333333</v>
+        <v>0.99427083333333299</v>
       </c>
       <c r="C20">
         <v>105</v>
@@ -3521,7 +2917,7 @@
         <v>1735</v>
       </c>
       <c r="O20">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="P20">
         <v>111</v>
@@ -3547,10 +2943,10 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>0.00185185185185185</v>
+        <v>1.85185185185185E-3</v>
       </c>
       <c r="B21" s="1">
-        <v>0.994386574074074</v>
+        <v>0.99438657407407405</v>
       </c>
       <c r="C21">
         <v>110</v>
@@ -3615,10 +3011,10 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>0.00196759259259259</v>
+        <v>1.9675925925925898E-3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.994502314814815</v>
+        <v>0.99450231481481499</v>
       </c>
       <c r="C22">
         <v>111</v>
@@ -3683,10 +3079,10 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>0.00208333333333333</v>
+        <v>2.0833333333333298E-3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.994618055555556</v>
+        <v>0.99461805555555605</v>
       </c>
       <c r="C23">
         <v>115</v>
@@ -3751,10 +3147,10 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>0.00219907407407407</v>
+        <v>2.1990740740740699E-3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.994733796296296</v>
+        <v>0.99473379629629599</v>
       </c>
       <c r="C24">
         <v>110</v>
@@ -3819,10 +3215,10 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>0.00231481481481482</v>
+        <v>2.3148148148148199E-3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.994849537037037</v>
+        <v>0.99484953703703705</v>
       </c>
       <c r="C25">
         <v>107</v>
@@ -3887,10 +3283,10 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>0.00243055555555556</v>
+        <v>2.4305555555555599E-3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.994965277777778</v>
+        <v>0.99496527777777799</v>
       </c>
       <c r="C26">
         <v>107</v>
@@ -3929,7 +3325,7 @@
         <v>1818</v>
       </c>
       <c r="O26">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="P26">
         <v>111</v>
@@ -3955,10 +3351,10 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>0.0025462962962963</v>
+        <v>2.5462962962963E-3</v>
       </c>
       <c r="B27" s="1">
-        <v>0.995081018518518</v>
+        <v>0.99508101851851805</v>
       </c>
       <c r="C27">
         <v>115</v>
@@ -3970,7 +3366,7 @@
         <v>6.88</v>
       </c>
       <c r="F27">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="G27">
         <v>64</v>
@@ -4023,10 +3419,10 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>0.00266203703703704</v>
+        <v>2.66203703703704E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>0.995196759259259</v>
+        <v>0.99519675925925899</v>
       </c>
       <c r="C28">
         <v>114</v>
@@ -4091,10 +3487,10 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>0.00277777777777778</v>
+        <v>2.7777777777777801E-3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.9953125</v>
+        <v>0.99531250000000004</v>
       </c>
       <c r="C29">
         <v>118</v>
@@ -4159,10 +3555,10 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>0.00289351851851852</v>
+        <v>2.8935185185185201E-3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.995428240740741</v>
+        <v>0.99542824074074099</v>
       </c>
       <c r="C30">
         <v>124</v>
@@ -4227,10 +3623,10 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>0.00300925925925926</v>
+        <v>3.0092592592592601E-3</v>
       </c>
       <c r="B31" s="1">
-        <v>0.995543981481481</v>
+        <v>0.99554398148148104</v>
       </c>
       <c r="C31">
         <v>126</v>
@@ -4295,10 +3691,10 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>0.003125</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="B32" s="1">
-        <v>0.995659722222222</v>
+        <v>0.99565972222222199</v>
       </c>
       <c r="C32">
         <v>133</v>
@@ -4307,7 +3703,7 @@
         <v>60</v>
       </c>
       <c r="E32">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F32">
         <v>5.09</v>
@@ -4366,10 +3762,10 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>0.00324074074074074</v>
+        <v>3.2407407407407402E-3</v>
       </c>
       <c r="B33" s="1">
-        <v>0.995775462962963</v>
+        <v>0.99577546296296304</v>
       </c>
       <c r="C33">
         <v>134</v>
@@ -4378,7 +3774,7 @@
         <v>65</v>
       </c>
       <c r="E33">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F33">
         <v>5.51</v>
@@ -4434,10 +3830,10 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>0.00335648148148148</v>
+        <v>3.3564814814814798E-3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.995891203703704</v>
+        <v>0.99589120370370399</v>
       </c>
       <c r="C34">
         <v>139</v>
@@ -4446,7 +3842,7 @@
         <v>68</v>
       </c>
       <c r="E34">
-        <v>9.62</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="F34">
         <v>6.03</v>
@@ -4502,10 +3898,10 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>0.00347222222222222</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="B35" s="1">
-        <v>0.996006944444444</v>
+        <v>0.99600694444444404</v>
       </c>
       <c r="C35">
         <v>139</v>
@@ -4570,10 +3966,10 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>0.00358796296296296</v>
+        <v>3.5879629629629599E-3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.996122685185185</v>
+        <v>0.99612268518518499</v>
       </c>
       <c r="C36">
         <v>138</v>
@@ -4638,10 +4034,10 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>0.0037037037037037</v>
+        <v>3.7037037037036999E-3</v>
       </c>
       <c r="B37" s="1">
-        <v>0.996238425925926</v>
+        <v>0.99623842592592604</v>
       </c>
       <c r="C37">
         <v>145</v>
@@ -4650,7 +4046,7 @@
         <v>68</v>
       </c>
       <c r="E37">
-        <v>9.97</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="F37">
         <v>6.25</v>
@@ -4706,10 +4102,10 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>0.00381944444444444</v>
+        <v>3.81944444444444E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.996354166666667</v>
+        <v>0.99635416666666698</v>
       </c>
       <c r="C38">
         <v>150</v>
@@ -4774,10 +4170,10 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>0.00393518518518519</v>
+        <v>3.93518518518519E-3</v>
       </c>
       <c r="B39" s="1">
-        <v>0.996469907407407</v>
+        <v>0.99646990740740704</v>
       </c>
       <c r="C39">
         <v>154</v>
@@ -4842,10 +4238,10 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>0.00405092592592593</v>
+        <v>4.05092592592593E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.996585648148148</v>
+        <v>0.99658564814814798</v>
       </c>
       <c r="C40">
         <v>158</v>
@@ -4910,10 +4306,10 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>0.00416666666666667</v>
+        <v>4.1666666666666701E-3</v>
       </c>
       <c r="B41" s="1">
-        <v>0.996701388888889</v>
+        <v>0.99670138888888904</v>
       </c>
       <c r="C41">
         <v>155</v>
@@ -4952,7 +4348,7 @@
         <v>1020</v>
       </c>
       <c r="O41">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="P41">
         <v>99</v>
@@ -4978,10 +4374,10 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>0.00428240740740741</v>
+        <v>4.2824074074074101E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.99681712962963</v>
+        <v>0.99681712962962998</v>
       </c>
       <c r="C42">
         <v>155</v>
@@ -5046,10 +4442,10 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>0.00439814814814815</v>
+        <v>4.3981481481481502E-3</v>
       </c>
       <c r="B43" s="1">
-        <v>0.99693287037037</v>
+        <v>0.99693287037037004</v>
       </c>
       <c r="C43">
         <v>158</v>
@@ -5114,10 +4510,10 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>0.00451388888888889</v>
+        <v>4.5138888888888902E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.997048611111111</v>
+        <v>0.99704861111111098</v>
       </c>
       <c r="C44">
         <v>158</v>
@@ -5182,10 +4578,10 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>0.00462962962962963</v>
+        <v>4.6296296296296302E-3</v>
       </c>
       <c r="B45" s="1">
-        <v>0.997164351851852</v>
+        <v>0.99716435185185204</v>
       </c>
       <c r="C45">
         <v>162</v>
@@ -5250,10 +4646,10 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>0.00474537037037037</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.997280092592593</v>
+        <v>0.99728009259259298</v>
       </c>
       <c r="C46">
         <v>166</v>
@@ -5292,7 +4688,7 @@
         <v>988</v>
       </c>
       <c r="O46">
-        <v>8.38</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="P46">
         <v>95</v>
@@ -5318,10 +4714,10 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>0.00486111111111111</v>
+        <v>4.8611111111111103E-3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.997395833333333</v>
+        <v>0.99739583333333304</v>
       </c>
       <c r="C47">
         <v>166</v>
@@ -5386,10 +4782,10 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>0.00497685185185185</v>
+        <v>4.9768518518518504E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>0.997511574074074</v>
+        <v>0.99751157407407398</v>
       </c>
       <c r="C48">
         <v>167</v>
@@ -5454,10 +4850,10 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>0.00509259259259259</v>
+        <v>5.0925925925925904E-3</v>
       </c>
       <c r="B49" s="1">
-        <v>0.997627314814815</v>
+        <v>0.99762731481481504</v>
       </c>
       <c r="C49">
         <v>171</v>
@@ -5522,10 +4918,10 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>0.00520833333333333</v>
+        <v>5.2083333333333296E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>0.997743055555556</v>
+        <v>0.99774305555555598</v>
       </c>
       <c r="C50">
         <v>172</v>
@@ -5564,7 +4960,7 @@
         <v>1009</v>
       </c>
       <c r="O50">
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="P50">
         <v>90</v>
@@ -5590,10 +4986,10 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>0.00532407407407407</v>
+        <v>5.3240740740740696E-3</v>
       </c>
       <c r="B51" s="1">
-        <v>0.997858796296296</v>
+        <v>0.99785879629629604</v>
       </c>
       <c r="C51">
         <v>173</v>
@@ -5658,10 +5054,10 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>0.00543981481481481</v>
+        <v>5.4398148148148097E-3</v>
       </c>
       <c r="B52" s="1">
-        <v>0.997974537037037</v>
+        <v>0.99797453703703698</v>
       </c>
       <c r="C52">
         <v>171</v>
@@ -5726,10 +5122,10 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>0.00555555555555556</v>
+        <v>5.5555555555555601E-3</v>
       </c>
       <c r="B53" s="1">
-        <v>0.998090277777778</v>
+        <v>0.99809027777777803</v>
       </c>
       <c r="C53">
         <v>170</v>
@@ -5794,10 +5190,10 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>0.0056712962962963</v>
+        <v>5.6712962962963001E-3</v>
       </c>
       <c r="B54" s="1">
-        <v>0.998206018518519</v>
+        <v>0.99820601851851898</v>
       </c>
       <c r="C54">
         <v>171</v>
@@ -5836,7 +5232,7 @@
         <v>981</v>
       </c>
       <c r="O54">
-        <v>8.45</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="P54">
         <v>94</v>
@@ -5862,10 +5258,10 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>0.00578703703703704</v>
+        <v>5.7870370370370402E-3</v>
       </c>
       <c r="B55" s="1">
-        <v>0.998321759259259</v>
+        <v>0.99832175925925903</v>
       </c>
       <c r="C55">
         <v>176</v>
@@ -5930,10 +5326,10 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>0.00590277777777778</v>
+        <v>5.9027777777777802E-3</v>
       </c>
       <c r="B56" s="1">
-        <v>0.9984375</v>
+        <v>0.99843749999999998</v>
       </c>
       <c r="C56">
         <v>179</v>
@@ -5998,10 +5394,10 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>0.00601851851851852</v>
+        <v>6.0185185185185203E-3</v>
       </c>
       <c r="B57" s="1">
-        <v>0.998553240740741</v>
+        <v>0.99855324074074103</v>
       </c>
       <c r="C57">
         <v>178</v>
@@ -6066,10 +5462,10 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>0.00613425925925926</v>
+        <v>6.1342592592592603E-3</v>
       </c>
       <c r="B58" s="1">
-        <v>0.998668981481481</v>
+        <v>0.99866898148148098</v>
       </c>
       <c r="C58">
         <v>177</v>
@@ -6134,10 +5530,10 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>0.00625</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="B59" s="1">
-        <v>0.998784722222222</v>
+        <v>0.99878472222222203</v>
       </c>
       <c r="C59">
         <v>176</v>
@@ -6202,10 +5598,10 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>0.00636574074074074</v>
+        <v>6.3657407407407404E-3</v>
       </c>
       <c r="B60" s="1">
-        <v>0.998900462962963</v>
+        <v>0.99890046296296298</v>
       </c>
       <c r="C60">
         <v>178</v>
@@ -6270,10 +5666,10 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>0.00648148148148148</v>
+        <v>6.4814814814814804E-3</v>
       </c>
       <c r="B61" s="1">
-        <v>0.999016203703704</v>
+        <v>0.99901620370370403</v>
       </c>
       <c r="C61">
         <v>183</v>
@@ -6341,10 +5737,10 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>0.00659722222222222</v>
+        <v>6.5972222222222196E-3</v>
       </c>
       <c r="B62" s="1">
-        <v>0.999131944444445</v>
+        <v>0.99913194444444497</v>
       </c>
       <c r="C62">
         <v>187</v>
@@ -6409,10 +5805,10 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>0.00671296296296296</v>
+        <v>6.7129629629629596E-3</v>
       </c>
       <c r="B63" s="1">
-        <v>0.999247685185185</v>
+        <v>0.99924768518518503</v>
       </c>
       <c r="C63">
         <v>188</v>
@@ -6477,10 +5873,10 @@
     </row>
     <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>0.0068287037037037</v>
+        <v>6.8287037037036997E-3</v>
       </c>
       <c r="B64" s="1">
-        <v>0.999363425925926</v>
+        <v>0.99936342592592597</v>
       </c>
       <c r="C64">
         <v>190</v>
@@ -6545,10 +5941,10 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="B65" s="1">
-        <v>0.999479166666667</v>
+        <v>0.99947916666666703</v>
       </c>
       <c r="C65">
         <v>190</v>
@@ -6613,10 +6009,10 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>0.00706018518518518</v>
+        <v>7.0601851851851798E-3</v>
       </c>
       <c r="B66" s="1">
-        <v>0.999594907407407</v>
+        <v>0.99959490740740697</v>
       </c>
       <c r="C66">
         <v>190</v>
@@ -6628,7 +6024,7 @@
         <v>12.96</v>
       </c>
       <c r="F66">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="G66">
         <v>61</v>
@@ -6681,10 +6077,10 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>0.00717592592592593</v>
+        <v>7.1759259259259302E-3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.999710648148148</v>
+        <v>0.99971064814814803</v>
       </c>
       <c r="C67">
         <v>192</v>
@@ -6752,10 +6148,10 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>0.00729166666666667</v>
+        <v>7.2916666666666703E-3</v>
       </c>
       <c r="B68" s="1">
-        <v>0.999826388888889</v>
+        <v>0.99982638888888897</v>
       </c>
       <c r="C68">
         <v>194</v>
@@ -6807,31 +6203,31 @@
       </c>
       <c r="U68" s="2">
         <f>AVERAGE(C62:C68)</f>
-        <v>190.142857142857</v>
+        <v>190.14285714285714</v>
       </c>
       <c r="V68" s="2">
         <f t="shared" ref="V68:AI68" si="1">AVERAGE(D66:D68)</f>
-        <v>62.6666666666667</v>
+        <v>62.666666666666664</v>
       </c>
       <c r="W68" s="2">
         <f t="shared" si="1"/>
-        <v>12.1333333333333</v>
+        <v>12.133333333333333</v>
       </c>
       <c r="X68" s="2">
         <f t="shared" si="1"/>
-        <v>7.60666666666667</v>
+        <v>7.6066666666666665</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" si="1"/>
-        <v>60.3333333333333</v>
+        <v>60.333333333333336</v>
       </c>
       <c r="Z68" s="2">
         <f t="shared" si="1"/>
-        <v>233.666666666667</v>
+        <v>233.66666666666666</v>
       </c>
       <c r="AA68" s="2">
         <f t="shared" si="1"/>
-        <v>116.333333333333</v>
+        <v>116.33333333333333</v>
       </c>
       <c r="AB68" s="2">
         <f t="shared" si="1"/>
@@ -6843,7 +6239,7 @@
       </c>
       <c r="AD68" s="2">
         <f t="shared" si="1"/>
-        <v>103.666666666667</v>
+        <v>103.66666666666667</v>
       </c>
       <c r="AE68" s="2">
         <f t="shared" si="1"/>
@@ -6851,27 +6247,27 @@
       </c>
       <c r="AF68" s="2">
         <f t="shared" si="1"/>
-        <v>911.666666666667</v>
+        <v>911.66666666666663</v>
       </c>
       <c r="AG68" s="2">
         <f t="shared" si="1"/>
-        <v>9.12666666666667</v>
+        <v>9.1266666666666669</v>
       </c>
       <c r="AH68" s="2">
         <f t="shared" si="1"/>
-        <v>89.3333333333333</v>
+        <v>89.333333333333329</v>
       </c>
       <c r="AI68" s="2">
         <f t="shared" si="1"/>
-        <v>35.6666666666667</v>
+        <v>35.666666666666664</v>
       </c>
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>0.00740740740740741</v>
+        <v>7.4074074074074103E-3</v>
       </c>
       <c r="B69" s="1">
-        <v>0.99994212962963</v>
+        <v>0.99994212962963003</v>
       </c>
       <c r="C69">
         <v>195</v>
@@ -6939,7 +6335,7 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>0.00752314814814815</v>
+        <v>7.5231481481481503E-3</v>
       </c>
       <c r="B70" t="s">
         <v>46</v>
@@ -6994,15 +6390,15 @@
       </c>
       <c r="U70" s="2">
         <f>AVERAGE(C68:C74)</f>
-        <v>197.428571428571</v>
+        <v>197.42857142857142</v>
       </c>
       <c r="V70" s="2">
         <f t="shared" ref="V70:AI70" si="2">AVERAGE(D68:D70)</f>
-        <v>66.3333333333333</v>
+        <v>66.333333333333329</v>
       </c>
       <c r="W70" s="2">
-        <f t="shared" si="2"/>
-        <v>13.0166666666667</v>
+        <f>AVERAGE(E70:E76)</f>
+        <v>13.075714285714286</v>
       </c>
       <c r="X70" s="2">
         <f t="shared" si="2"/>
@@ -7010,19 +6406,19 @@
       </c>
       <c r="Y70" s="2">
         <f t="shared" si="2"/>
-        <v>60.6666666666667</v>
+        <v>60.666666666666664</v>
       </c>
       <c r="Z70" s="2">
         <f t="shared" si="2"/>
-        <v>232.333333333333</v>
+        <v>232.33333333333334</v>
       </c>
       <c r="AA70" s="2">
         <f t="shared" si="2"/>
-        <v>120.666666666667</v>
+        <v>120.66666666666667</v>
       </c>
       <c r="AB70" s="2">
         <f t="shared" si="2"/>
-        <v>119.666666666667</v>
+        <v>119.66666666666667</v>
       </c>
       <c r="AC70" s="2">
         <f t="shared" si="2"/>
@@ -7030,7 +6426,7 @@
       </c>
       <c r="AD70" s="2">
         <f t="shared" si="2"/>
-        <v>108.333333333333</v>
+        <v>108.33333333333333</v>
       </c>
       <c r="AE70" s="2">
         <f t="shared" si="2"/>
@@ -7042,7 +6438,7 @@
       </c>
       <c r="AG70" s="2">
         <f t="shared" si="2"/>
-        <v>9.79</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="AH70" s="2">
         <f t="shared" si="2"/>
@@ -7050,12 +6446,12 @@
       </c>
       <c r="AI70" s="2">
         <f t="shared" si="2"/>
-        <v>42.6666666666667</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+        <v>42.666666666666664</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>0.00763888888888889</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="B71" t="s">
         <v>48</v>
@@ -7106,9 +6502,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>0.00775462962962963</v>
+        <v>7.7546296296296304E-3</v>
       </c>
       <c r="B72" t="s">
         <v>49</v>
@@ -7150,7 +6546,7 @@
         <v>869</v>
       </c>
       <c r="O72">
-        <v>9.54</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="P72">
         <v>81</v>
@@ -7159,9 +6555,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>0.00787037037037037</v>
+        <v>7.8703703703703696E-3</v>
       </c>
       <c r="B73" t="s">
         <v>50</v>
@@ -7212,9 +6608,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>0.00798611111111111</v>
+        <v>7.9861111111111105E-3</v>
       </c>
       <c r="B74" t="s">
         <v>51</v>
@@ -7265,9 +6661,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:35">
       <c r="A75" s="1">
-        <v>0.00810185185185185</v>
+        <v>8.1018518518518497E-3</v>
       </c>
       <c r="B75" t="s">
         <v>52</v>
@@ -7318,9 +6714,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:35">
       <c r="A76" s="1">
-        <v>0.00821759259259259</v>
+        <v>8.2175925925925906E-3</v>
       </c>
       <c r="B76" t="s">
         <v>53</v>
@@ -7335,7 +6731,7 @@
         <v>14.3</v>
       </c>
       <c r="F76">
-        <v>8.96</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="G76">
         <v>58</v>
@@ -7371,9 +6767,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>0.00833333333333333</v>
+        <v>8.3333333333333297E-3</v>
       </c>
       <c r="B77" t="s">
         <v>54</v>
@@ -7427,9 +6823,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>0.00844907407407407</v>
+        <v>8.4490740740740707E-3</v>
       </c>
       <c r="B78" t="s">
         <v>56</v>
@@ -7444,7 +6840,7 @@
         <v>12.97</v>
       </c>
       <c r="F78">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="G78">
         <v>61</v>
@@ -7483,9 +6879,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>0.00856481481481482</v>
+        <v>8.5648148148148202E-3</v>
       </c>
       <c r="B79" t="s">
         <v>58</v>
@@ -7527,7 +6923,7 @@
         <v>854</v>
       </c>
       <c r="O79">
-        <v>9.72</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="P79">
         <v>94</v>
@@ -7536,9 +6932,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:35">
       <c r="A80" s="1">
-        <v>0.00868055555555556</v>
+        <v>8.6805555555555594E-3</v>
       </c>
       <c r="B80" t="s">
         <v>59</v>
@@ -7591,7 +6987,7 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1">
-        <v>0.0087962962962963</v>
+        <v>8.7962962962963003E-3</v>
       </c>
       <c r="B81" t="s">
         <v>60</v>
@@ -7606,7 +7002,7 @@
         <v>13.61</v>
       </c>
       <c r="F81">
-        <v>8.53</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G81">
         <v>61</v>
@@ -7644,7 +7040,7 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1">
-        <v>0.00891203703703704</v>
+        <v>8.9120370370370395E-3</v>
       </c>
       <c r="B82" t="s">
         <v>61</v>
@@ -7659,7 +7055,7 @@
         <v>13.5</v>
       </c>
       <c r="F82">
-        <v>8.46</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="G82">
         <v>61</v>
@@ -7697,7 +7093,7 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1">
-        <v>0.00902777777777778</v>
+        <v>9.0277777777777804E-3</v>
       </c>
       <c r="B83" t="s">
         <v>62</v>
@@ -7750,7 +7146,7 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1">
-        <v>0.00914351851851852</v>
+        <v>9.1435185185185196E-3</v>
       </c>
       <c r="B84" t="s">
         <v>63</v>
@@ -7803,7 +7199,7 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1">
-        <v>0.00925925925925926</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="B85" t="s">
         <v>64</v>
@@ -7856,7 +7252,7 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1">
-        <v>0.009375</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="B86" t="s">
         <v>65</v>
@@ -7909,7 +7305,7 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1">
-        <v>0.00949074074074074</v>
+        <v>9.4907407407407406E-3</v>
       </c>
       <c r="B87" t="s">
         <v>66</v>
@@ -7951,7 +7347,7 @@
         <v>998</v>
       </c>
       <c r="O87">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="P87">
         <v>88</v>
@@ -7960,46 +7356,37 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>